--- a/WppRegPack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegpack\TestResource\SysTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -1161,7 +1161,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>1707106968</t>
+    <t>1707103531</t>
   </si>
 </sst>
 </file>
@@ -2367,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2646,7 +2646,7 @@
         <v>336</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
         <v>338</v>
@@ -3290,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4579,18 +4579,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4791,18 +4791,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB9CE11-A504-467A-B4F8-5483A2C56B00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE4E168-4980-4C4F-A715-DD86E584F4E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE4E168-4980-4C4F-A715-DD86E584F4E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB9CE11-A504-467A-B4F8-5483A2C56B00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/WppRegPack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\RegressionCode\WppTestSuite\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -940,7 +940,7 @@
     <t>1707105313</t>
   </si>
   <si>
-    <t>1707105321</t>
+    <t>1707105324</t>
   </si>
 </sst>
 </file>

--- a/WppRegPack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jenkins\workspace\GlobalTestSuite\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,8 +31,10 @@
     <sheet name="ApprovePurchaseOrder" sheetId="19" r:id="rId17"/>
     <sheet name="RejectPurchaseOrder" sheetId="20" r:id="rId18"/>
     <sheet name="VendorInvoice" sheetId="24" r:id="rId19"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId20"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId21"/>
+    <sheet name="ApproveVendorInvoice" sheetId="25" r:id="rId20"/>
+    <sheet name="RejectVendorInvoice" sheetId="26" r:id="rId21"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId22"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="300">
   <si>
     <t>Description</t>
   </si>
@@ -937,10 +939,13 @@
     <t>Purch Order No_10</t>
   </si>
   <si>
-    <t>1707105313</t>
-  </si>
-  <si>
-    <t>1707105324</t>
+    <t>1707105325</t>
+  </si>
+  <si>
+    <t>Invoice NO</t>
+  </si>
+  <si>
+    <t>170710531</t>
   </si>
 </sst>
 </file>
@@ -2911,7 +2916,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2967,14 +2972,11 @@
       <c r="A2">
         <v>1707</v>
       </c>
-      <c r="B2">
-        <v>1707105313</v>
-      </c>
       <c r="C2" s="35" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D2">
-        <v>1707105313</v>
+        <v>170710531</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3107,7 @@
         <v>222</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3115,6 +3117,64 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -3254,7 +3314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -4117,21 +4177,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -4328,15 +4379,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE4E168-4980-4C4F-A715-DD86E584F4E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB9CE11-A504-467A-B4F8-5483A2C56B00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4345,7 +4397,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{770AA862-8C95-461E-8F5A-0CF9ACE5EB2E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4362,4 +4414,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE4E168-4980-4C4F-A715-DD86E584F4E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WppRegPack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jenkins\workspace\GlobalTestSuite\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="299">
   <si>
     <t>Description</t>
   </si>
@@ -939,13 +939,10 @@
     <t>Purch Order No_10</t>
   </si>
   <si>
-    <t>1707105325</t>
-  </si>
-  <si>
     <t>Invoice NO</t>
   </si>
   <si>
-    <t>170710531</t>
+    <t>1707105328</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2151,7 @@
   <dimension ref="A1:BU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2915,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2973,10 +2970,10 @@
         <v>1707</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2">
-        <v>170710531</v>
+        <v>1707105328</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3104,7 @@
         <v>222</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3136,7 +3133,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3162,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
